--- a/XLSX_Time.xlsx
+++ b/XLSX_Time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb6fb34ffe4b9cd4/Documents/GitHub/KSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB1D69C5BA0DE7AAFDB331159202076682FE432" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55127336-B7FD-407C-9050-485174126619}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB1D69C5BF05C7C8B9821115953303655A1D37F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1451BFA8-534B-4A98-ACE5-6F89C4C62FD6}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1170" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>Contact</t>
   </si>
@@ -49,100 +49,136 @@
     <t>DPK-32-BSG8301</t>
   </si>
   <si>
-    <t>2023-04-04</t>
+    <t>2023-05-02</t>
   </si>
   <si>
     <t>Tuesday</t>
   </si>
   <si>
-    <t xml:space="preserve">Weekly meeting, E&amp;B coordination, PW online, additional BIM access, </t>
-  </si>
-  <si>
-    <t>2023-04-05</t>
+    <t>CSR coordination meeting. Fence scope change meeting, Weekly meeting</t>
+  </si>
+  <si>
+    <t>DPK-32-BSG8303</t>
+  </si>
+  <si>
+    <t>2023-05-03</t>
   </si>
   <si>
     <t>Wednesday</t>
   </si>
   <si>
-    <t>Looked into TWF access height issue, coordinated FLS in TMF, tray modelled in TMF Admin.</t>
-  </si>
-  <si>
-    <t>2023-04-06</t>
+    <t>Familiarize with package. Spell check, schedule fixes, notes updates</t>
+  </si>
+  <si>
+    <t>2023-05-04</t>
   </si>
   <si>
     <t>Thursday</t>
   </si>
   <si>
-    <t>E&amp;L Meeting, TWF structural coordination in TWF. Column coordination TMF. HV Yard coordination.</t>
-  </si>
-  <si>
-    <t>2023-04-11</t>
-  </si>
-  <si>
-    <t>HV Yard coordination, TWF Coordination and documentation</t>
-  </si>
-  <si>
-    <t>2023-04-12</t>
-  </si>
-  <si>
-    <t>Constructability Meeting, Fence coordination, TWF riser coordination, Lighting control philosophy design</t>
-  </si>
-  <si>
-    <t>2023-04-13</t>
-  </si>
-  <si>
-    <t>TWF design, Ticket system training.</t>
-  </si>
-  <si>
-    <t>2023-04-14</t>
+    <t>TeamBinder Access, Yard management, working on SharePoint access</t>
+  </si>
+  <si>
+    <t>SPA-DPK-988-32-ETN-4902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attended meeting, responded to CRS comments, corrected luminaire schedule. </t>
+  </si>
+  <si>
+    <t>2023-05-05</t>
   </si>
   <si>
     <t>Friday</t>
   </si>
   <si>
-    <t xml:space="preserve">Modelling of TWF, </t>
-  </si>
-  <si>
-    <t>2023-04-18</t>
-  </si>
-  <si>
-    <t>Verification documents preparation for G1. Fixed Luminaire schedules.</t>
-  </si>
-  <si>
-    <t>2023-04-19</t>
-  </si>
-  <si>
-    <t>Continued modelling for G1 construction set. Fixed luminaire schedules. Updated site layout.</t>
-  </si>
-  <si>
-    <t>2023-04-20</t>
-  </si>
-  <si>
-    <t>Server Room, TMF Section and 3D</t>
-  </si>
-  <si>
-    <t>2023-04-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designed/documented MSB Room, Server Room, assisted OCS modelling. </t>
-  </si>
-  <si>
-    <t>2023-04-26</t>
-  </si>
-  <si>
-    <t>Exit and EM Design, plus lighting layouts fixup.</t>
-  </si>
-  <si>
-    <t>2023-04-27</t>
-  </si>
-  <si>
-    <t>Fixed PW access and privileges. Got issuing scripts working. Got batch plotting improved. ETN coordination and gave markup.</t>
-  </si>
-  <si>
-    <t>2023-04-28</t>
-  </si>
-  <si>
-    <t>Verification form, Bulk uploader, Coordinated external pathways (CSR/Civil), PA pathway, A</t>
+    <t>CRS comments investigation and delegation, resource planning, Fence coordination.</t>
+  </si>
+  <si>
+    <t>2023-05-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly Meeting. Yard coordination (IWP/CSR interfacing).  Fence structures workshop. </t>
+  </si>
+  <si>
+    <t>2023-05-10</t>
+  </si>
+  <si>
+    <t>Chased outdated links. Coordinated yard conduits. Coordinated Lighting. More CSR coordination. Started circuiting. C</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>Light pole coordination. Existing OCS services removal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS130828-167 (110333 AWP7 - Alliance Events) </t>
+  </si>
+  <si>
+    <t>2023-05-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSR IDR and coordination. Lighting circuiting discussion. Pole schedule updates. </t>
+  </si>
+  <si>
+    <t>2023-05-16</t>
+  </si>
+  <si>
+    <t>OHW IDR, Weekly Meeting, Transformer lighting control, Miles Grove fence coordination.</t>
+  </si>
+  <si>
+    <t>2023-05-17</t>
+  </si>
+  <si>
+    <t>BBQ area coordination, OH coordination with OCS, Fence coordination Miles Grove.</t>
+  </si>
+  <si>
+    <t>2023-05-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinated fence light heights. Started tracing and documenting cable paths. Assisted circuiting of parafill lighting design. </t>
+  </si>
+  <si>
+    <t>2023-05-19</t>
+  </si>
+  <si>
+    <t>LV/OCS coordination additional drawings setup, Yard CSR coordination,  Plinth Coordination.</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>OHW and OCS workshop, Weekly Meeting, Coordinated existing fence, Yard conduit documenting</t>
+  </si>
+  <si>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>More CCTV pole coordination. Basin coordination. Pole grid drawings. Light pole schedules.</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>OCS coordination, More CSR coordination, reticulation layout added, Revit assist (Lighting copy monitor)</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>coordinated with OCS (CCTV on fences), updated pits to posts, fixed gate pathway, delegated Substation.</t>
+  </si>
+  <si>
+    <t>2023-05-30</t>
+  </si>
+  <si>
+    <t>Weekly meeting, OCS coordination, Modler delegation and assistance, draughting corrections</t>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDR Presentation, IDR Docs fixup, Pit renaming, Coordination of pit in path, Landscape coordination. </t>
   </si>
 </sst>
 </file>
@@ -505,21 +541,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="114.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -570,19 +606,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -590,19 +626,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -610,19 +646,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -630,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -650,19 +686,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -670,19 +706,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -690,36 +726,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
@@ -736,10 +769,10 @@
         <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -750,13 +783,13 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>8</v>
@@ -770,13 +803,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -790,16 +823,16 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
         <v>38</v>
@@ -810,19 +843,139 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX_Time.xlsx
+++ b/XLSX_Time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb6fb34ffe4b9cd4/Documents/GitHub/KSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB1D69C5BF05C7C8B9821115953303655A1D37F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1451BFA8-534B-4A98-ACE5-6F89C4C62FD6}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB1D69C5B1051036F792211594CA0F55BFDEF5E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4FB8216-A430-4EC5-9762-84B7A9BF9DC0}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
   <si>
     <t>Contact</t>
   </si>
@@ -46,139 +46,130 @@
     <t>WSP AUSTRALIA PTY LIMITED</t>
   </si>
   <si>
+    <t>DPK-32-BSG8303</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Payed RIW subscription, Coordination Civil for HV Tx</t>
+  </si>
+  <si>
+    <t>2023-06-02</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>OCS/HYD IDR, Markup for draughting, Pit location data, landscape coordinate.</t>
+  </si>
+  <si>
+    <t>2023-06-06</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Updated Existing light locations, Weekly meeting, OCS UPS coordination, Pit in CSR request, HV Yard discussion</t>
+  </si>
+  <si>
+    <t>2023-06-07</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Resource Meeting, Construction Meeting, TWF UPS supply document.</t>
+  </si>
+  <si>
+    <t>2023-06-08</t>
+  </si>
+  <si>
+    <t>Got verification drawings ready.</t>
+  </si>
+  <si>
+    <t>2023-06-09</t>
+  </si>
+  <si>
+    <t>RE-coordinated OCS, Fault ratings investigation, Coordinated Pits with civil.</t>
+  </si>
+  <si>
+    <t>2023-06-13</t>
+  </si>
+  <si>
+    <t>Verification comments action. Pole schedule update. Weekly meeting. Structures coordinate. Parafil re-circuit design.</t>
+  </si>
+  <si>
+    <t>2023-06-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Weekly resource meeting, TWF driver path, more OCS coordinate. Lighting Designs assist.</t>
+  </si>
+  <si>
+    <t>2023-06-15</t>
+  </si>
+  <si>
+    <t>TWF driver conduits and pits design, Lighting updates and coordination with CSR/Fence, Swell conduit removal.</t>
+  </si>
+  <si>
+    <t>2023-06-16</t>
+  </si>
+  <si>
+    <t>Updated conduits to new light poles. Added Gen Laydown. Updated tagging. Updated circuiting.</t>
+  </si>
+  <si>
+    <t>2023-06-20</t>
+  </si>
+  <si>
+    <t>Verification form update, Package Set, Circuit rationalization, Doc Set creation, Weekly Meeting</t>
+  </si>
+  <si>
     <t>DPK-32-BSG8301</t>
   </si>
   <si>
-    <t>2023-05-02</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>CSR coordination meeting. Fence scope change meeting, Weekly meeting</t>
-  </si>
-  <si>
-    <t>DPK-32-BSG8303</t>
-  </si>
-  <si>
-    <t>2023-05-03</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Familiarize with package. Spell check, schedule fixes, notes updates</t>
-  </si>
-  <si>
-    <t>2023-05-04</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>TeamBinder Access, Yard management, working on SharePoint access</t>
-  </si>
-  <si>
-    <t>SPA-DPK-988-32-ETN-4902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attended meeting, responded to CRS comments, corrected luminaire schedule. </t>
-  </si>
-  <si>
-    <t>2023-05-05</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>CRS comments investigation and delegation, resource planning, Fence coordination.</t>
-  </si>
-  <si>
-    <t>2023-05-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekly Meeting. Yard coordination (IWP/CSR interfacing).  Fence structures workshop. </t>
-  </si>
-  <si>
-    <t>2023-05-10</t>
-  </si>
-  <si>
-    <t>Chased outdated links. Coordinated yard conduits. Coordinated Lighting. More CSR coordination. Started circuiting. C</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>Light pole coordination. Existing OCS services removal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS130828-167 (110333 AWP7 - Alliance Events) </t>
-  </si>
-  <si>
-    <t>2023-05-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSR IDR and coordination. Lighting circuiting discussion. Pole schedule updates. </t>
-  </si>
-  <si>
-    <t>2023-05-16</t>
-  </si>
-  <si>
-    <t>OHW IDR, Weekly Meeting, Transformer lighting control, Miles Grove fence coordination.</t>
-  </si>
-  <si>
-    <t>2023-05-17</t>
-  </si>
-  <si>
-    <t>BBQ area coordination, OH coordination with OCS, Fence coordination Miles Grove.</t>
-  </si>
-  <si>
-    <t>2023-05-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coordinated fence light heights. Started tracing and documenting cable paths. Assisted circuiting of parafill lighting design. </t>
-  </si>
-  <si>
-    <t>2023-05-19</t>
-  </si>
-  <si>
-    <t>LV/OCS coordination additional drawings setup, Yard CSR coordination,  Plinth Coordination.</t>
-  </si>
-  <si>
-    <t>2023-05-23</t>
-  </si>
-  <si>
-    <t>OHW and OCS workshop, Weekly Meeting, Coordinated existing fence, Yard conduit documenting</t>
-  </si>
-  <si>
-    <t>2023-05-24</t>
-  </si>
-  <si>
-    <t>More CCTV pole coordination. Basin coordination. Pole grid drawings. Light pole schedules.</t>
-  </si>
-  <si>
-    <t>2023-05-25</t>
-  </si>
-  <si>
-    <t>OCS coordination, More CSR coordination, reticulation layout added, Revit assist (Lighting copy monitor)</t>
-  </si>
-  <si>
-    <t>2023-05-26</t>
-  </si>
-  <si>
-    <t>coordinated with OCS (CCTV on fences), updated pits to posts, fixed gate pathway, delegated Substation.</t>
-  </si>
-  <si>
-    <t>2023-05-30</t>
-  </si>
-  <si>
-    <t>Weekly meeting, OCS coordination, Modler delegation and assistance, draughting corrections</t>
-  </si>
-  <si>
-    <t>2023-05-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDR Presentation, IDR Docs fixup, Pit renaming, Coordination of pit in path, Landscape coordination. </t>
+    <t>2023-06-21</t>
+  </si>
+  <si>
+    <t>OVPD drawings review</t>
+  </si>
+  <si>
+    <t>2023-06-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver's Path Meeting, Lighting Catwalk removal delegate, TWF rejig delegate, SBS meeting. </t>
+  </si>
+  <si>
+    <t>2023-06-23</t>
+  </si>
+  <si>
+    <t>Site visit to Pakenham East Depot</t>
+  </si>
+  <si>
+    <t>2023-06-27</t>
+  </si>
+  <si>
+    <t>Started MTM CRS comment responses. Fixed TMF stair void services. Setup lighting meeting. Attended Weekly meeting.</t>
+  </si>
+  <si>
+    <t>2023-06-28</t>
+  </si>
+  <si>
+    <t>Got into lightning design. Weekly Meeting. CRS lighting comments workshop. Added pathways for TWF pit lights.</t>
+  </si>
+  <si>
+    <t>2023-06-29</t>
+  </si>
+  <si>
+    <t>Delegated PV Design. SBS coordination meeting. Lightning investigation. Bracing in TMF coordination.</t>
+  </si>
+  <si>
+    <t>2023-06-30</t>
+  </si>
+  <si>
+    <t>Followed up on Lightning system details. Coordinated Riser. Modelled Training room. Updated MSB Cable Tray.</t>
   </si>
 </sst>
 </file>
@@ -541,21 +532,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="110" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -595,7 +586,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -606,19 +597,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -626,19 +617,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -646,16 +637,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
       <c r="F5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -666,19 +657,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -686,19 +677,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -706,19 +697,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -726,33 +717,36 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>4.5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
@@ -769,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>9</v>
@@ -783,16 +777,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -803,19 +797,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -823,19 +817,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -843,19 +837,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -863,19 +857,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F16">
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -883,19 +877,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F17">
         <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -903,19 +897,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -923,59 +917,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
         <v>49</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>8</v>
-      </c>
-      <c r="G20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21">
-        <v>8</v>
-      </c>
-      <c r="G21" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX_Time.xlsx
+++ b/XLSX_Time.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb6fb34ffe4b9cd4/Documents/GitHub/KSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB1D69C5B1051036F792211594CA0F55BFDEF5E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4FB8216-A430-4EC5-9762-84B7A9BF9DC0}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB1D69C5BC0DA782BBB3C1159C028F57977D385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7E4687A-D91C-4343-AF50-04DE3C7447A8}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>Contact</t>
   </si>
@@ -49,127 +62,145 @@
     <t>DPK-32-BSG8303</t>
   </si>
   <si>
-    <t>2023-06-01</t>
+    <t>2023-07-03</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Architect IDR attendance</t>
+  </si>
+  <si>
+    <t>DPK-32-BSG8301</t>
+  </si>
+  <si>
+    <t>2023-07-04</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Structural IDR, Cable tray sizing, Started circuiting of heaters.</t>
+  </si>
+  <si>
+    <t>2023-07-05</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>IDR present and prepare.</t>
+  </si>
+  <si>
+    <t>2023-07-06</t>
   </si>
   <si>
     <t>Thursday</t>
   </si>
   <si>
-    <t>Payed RIW subscription, Coordination Civil for HV Tx</t>
-  </si>
-  <si>
-    <t>2023-06-02</t>
+    <t xml:space="preserve">Structural IDR, Cable tray sizing/weights/design in TMF. </t>
+  </si>
+  <si>
+    <t>2023-07-07</t>
   </si>
   <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>OCS/HYD IDR, Markup for draughting, Pit location data, landscape coordinate.</t>
-  </si>
-  <si>
-    <t>2023-06-06</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Updated Existing light locations, Weekly meeting, OCS UPS coordination, Pit in CSR request, HV Yard discussion</t>
-  </si>
-  <si>
-    <t>2023-06-07</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Resource Meeting, Construction Meeting, TWF UPS supply document.</t>
-  </si>
-  <si>
-    <t>2023-06-08</t>
-  </si>
-  <si>
-    <t>Got verification drawings ready.</t>
-  </si>
-  <si>
-    <t>2023-06-09</t>
-  </si>
-  <si>
-    <t>RE-coordinated OCS, Fault ratings investigation, Coordinated Pits with civil.</t>
-  </si>
-  <si>
-    <t>2023-06-13</t>
-  </si>
-  <si>
-    <t>Verification comments action. Pole schedule update. Weekly meeting. Structures coordinate. Parafil re-circuit design.</t>
-  </si>
-  <si>
-    <t>2023-06-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Weekly resource meeting, TWF driver path, more OCS coordinate. Lighting Designs assist.</t>
-  </si>
-  <si>
-    <t>2023-06-15</t>
-  </si>
-  <si>
-    <t>TWF driver conduits and pits design, Lighting updates and coordination with CSR/Fence, Swell conduit removal.</t>
-  </si>
-  <si>
-    <t>2023-06-16</t>
-  </si>
-  <si>
-    <t>Updated conduits to new light poles. Added Gen Laydown. Updated tagging. Updated circuiting.</t>
-  </si>
-  <si>
-    <t>2023-06-20</t>
-  </si>
-  <si>
-    <t>Verification form update, Package Set, Circuit rationalization, Doc Set creation, Weekly Meeting</t>
-  </si>
-  <si>
-    <t>DPK-32-BSG8301</t>
-  </si>
-  <si>
-    <t>2023-06-21</t>
-  </si>
-  <si>
-    <t>OVPD drawings review</t>
-  </si>
-  <si>
-    <t>2023-06-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driver's Path Meeting, Lighting Catwalk removal delegate, TWF rejig delegate, SBS meeting. </t>
-  </si>
-  <si>
-    <t>2023-06-23</t>
-  </si>
-  <si>
-    <t>Site visit to Pakenham East Depot</t>
-  </si>
-  <si>
-    <t>2023-06-27</t>
-  </si>
-  <si>
-    <t>Started MTM CRS comment responses. Fixed TMF stair void services. Setup lighting meeting. Attended Weekly meeting.</t>
-  </si>
-  <si>
-    <t>2023-06-28</t>
-  </si>
-  <si>
-    <t>Got into lightning design. Weekly Meeting. CRS lighting comments workshop. Added pathways for TWF pit lights.</t>
-  </si>
-  <si>
-    <t>2023-06-29</t>
-  </si>
-  <si>
-    <t>Delegated PV Design. SBS coordination meeting. Lightning investigation. Bracing in TMF coordination.</t>
-  </si>
-  <si>
-    <t>2023-06-30</t>
-  </si>
-  <si>
-    <t>Followed up on Lightning system details. Coordinated Riser. Modelled Training room. Updated MSB Cable Tray.</t>
+    <t>Finalized TMF Cable tray. Revizto mini workshop. Mech circuiting design for panel heaters.</t>
+  </si>
+  <si>
+    <t>2023-07-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWF cable tray update, Gate House circuiting, followed up lightning, weekly meeting. </t>
+  </si>
+  <si>
+    <t>2023-07-12</t>
+  </si>
+  <si>
+    <t>Constructability review x 2, fire model update and review.</t>
+  </si>
+  <si>
+    <t>2023-07-13</t>
+  </si>
+  <si>
+    <t>Highbay and catwalk lighting circuiting, TWF cable tray update, Lightning markup re-issue, Site visit prep.</t>
+  </si>
+  <si>
+    <t>2023-07-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kananook Site visit. Logging of photos on system. Additional admin when back in office. </t>
+  </si>
+  <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
+    <t>Enquired on Arch equipment power, followed up lightning, circuiting of power TMF ground.</t>
+  </si>
+  <si>
+    <t>2023-07-18</t>
+  </si>
+  <si>
+    <t>TMF Ground floor power circuiting and DB schedules. Received lightning designs.</t>
+  </si>
+  <si>
+    <t>2023-07-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMF Lv1 Power Circuit, Server Room Schematic. Mech coordination. </t>
+  </si>
+  <si>
+    <t>2023-07-20</t>
+  </si>
+  <si>
+    <t>Server room circuit, updated DB schedules, Added Section and 3D of TMF.</t>
+  </si>
+  <si>
+    <t>2023-07-21</t>
+  </si>
+  <si>
+    <t>Updated Emergency lighting (circuiting, locations, family editing), Revised Gate House Lighting.</t>
+  </si>
+  <si>
+    <t>2023-07-22</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Delegated work to Engineer. Emails. 3D details added.</t>
+  </si>
+  <si>
+    <t>2023-07-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answered some CRS comments on OCS. Created and delegated tasks to draughters plus support. Prep for G2 issue. </t>
+  </si>
+  <si>
+    <t>2023-07-26</t>
+  </si>
+  <si>
+    <t>More CRS comments (OCS related - big task), more circuiting, model tidying for presentation.</t>
+  </si>
+  <si>
+    <t>2023-07-27</t>
+  </si>
+  <si>
+    <t>Circuited all outlets, Updated all DB Schedules, created additional 3D views with commentary.</t>
+  </si>
+  <si>
+    <t>2023-07-28</t>
+  </si>
+  <si>
+    <t>TMWF Package Release. Update Outlet schedule details. Responded to some of Rowan's comments.</t>
+  </si>
+  <si>
+    <t>2023-07-31</t>
+  </si>
+  <si>
+    <t>Added rising conduits into OCS TWF. Fixed outlet schedule. Rowan Comments response.</t>
   </si>
 </sst>
 </file>
@@ -532,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +577,7 @@
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="110" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="105.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -586,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -597,19 +628,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -617,19 +648,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -637,19 +668,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -657,19 +688,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -677,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -697,19 +728,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -717,19 +748,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -737,19 +768,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -757,19 +788,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -777,19 +808,19 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
-      </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -797,19 +828,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -817,19 +848,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -837,19 +868,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15">
-        <v>9</v>
-      </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -857,19 +888,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -877,19 +908,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -897,19 +928,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -917,19 +948,59 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F19">
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX_Time.xlsx
+++ b/XLSX_Time.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb6fb34ffe4b9cd4/Documents/GitHub/KSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB1D69C5BC0DA782BBB3C1159C028F57977D385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7E4687A-D91C-4343-AF50-04DE3C7447A8}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_11B975845BB05604BB5A2B11595ED87656CD397F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AE8F485-48B8-43CD-A87C-F90038EAEC41}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
   <si>
     <t>Contact</t>
   </si>
@@ -62,145 +49,157 @@
     <t>DPK-32-BSG8303</t>
   </si>
   <si>
-    <t>2023-07-03</t>
+    <t>2023-08-01</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Started CRS comments. Checked on RIW status. Informal meetings Hyd and Ethan.</t>
+  </si>
+  <si>
+    <t>2023-08-02</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly resource meeting. CRS comments address. </t>
+  </si>
+  <si>
+    <t>2023-08-03</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>OHW coordination. CRS comments (VT and some MTM).</t>
+  </si>
+  <si>
+    <t>2023-08-04</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>MTM CRS comments</t>
+  </si>
+  <si>
+    <t>2023-08-08</t>
+  </si>
+  <si>
+    <t>Fixed up the OCS Reticulation plan. Re-coordinated OCS. Weekly Meeting.</t>
+  </si>
+  <si>
+    <t>2023-08-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRS meeting with MTM, and MTM CRS responding. </t>
+  </si>
+  <si>
+    <t>2023-08-10</t>
+  </si>
+  <si>
+    <t>Updated yard with MTM meeting comments, investigated JWebb comment, resolved some clashes. Moved building mounted lights to TMWF.</t>
+  </si>
+  <si>
+    <t>2023-08-11</t>
+  </si>
+  <si>
+    <t>Reduced lights on existing buildings, handed over JWebb comment, organised verification set.</t>
+  </si>
+  <si>
+    <t>2023-08-15</t>
+  </si>
+  <si>
+    <t>CRS comments (VT) and meeting, including document update. Lighting in BBQ area.</t>
+  </si>
+  <si>
+    <t>2023-08-16</t>
+  </si>
+  <si>
+    <t>Engineering Review comments, CRS support.</t>
+  </si>
+  <si>
+    <t>DPK-32-BSG8301</t>
+  </si>
+  <si>
+    <t>Coordination meeting with some action items.</t>
+  </si>
+  <si>
+    <t>2023-08-17</t>
+  </si>
+  <si>
+    <t>Followed up outstanding items with Package Manager. Investigated Shed lighting. Added Fire detection pathway.</t>
+  </si>
+  <si>
+    <t>Updated cable tray size in TMF, queried fixing details. Email tasks and outstanding items.</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>Meetings and discussions around TMF cable tray clearance for forklift.</t>
+  </si>
+  <si>
+    <t>Coordination with OCS and Civil (still). Checking of yard quantity schedules.</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
   </si>
   <si>
     <t>Monday</t>
   </si>
   <si>
-    <t>Architect IDR attendance</t>
-  </si>
-  <si>
-    <t>DPK-32-BSG8301</t>
-  </si>
-  <si>
-    <t>2023-07-04</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Structural IDR, Cable tray sizing, Started circuiting of heaters.</t>
-  </si>
-  <si>
-    <t>2023-07-05</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>IDR present and prepare.</t>
-  </si>
-  <si>
-    <t>2023-07-06</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structural IDR, Cable tray sizing/weights/design in TMF. </t>
-  </si>
-  <si>
-    <t>2023-07-07</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Finalized TMF Cable tray. Revizto mini workshop. Mech circuiting design for panel heaters.</t>
-  </si>
-  <si>
-    <t>2023-07-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWF cable tray update, Gate House circuiting, followed up lightning, weekly meeting. </t>
-  </si>
-  <si>
-    <t>2023-07-12</t>
-  </si>
-  <si>
-    <t>Constructability review x 2, fire model update and review.</t>
-  </si>
-  <si>
-    <t>2023-07-13</t>
-  </si>
-  <si>
-    <t>Highbay and catwalk lighting circuiting, TWF cable tray update, Lightning markup re-issue, Site visit prep.</t>
-  </si>
-  <si>
-    <t>2023-07-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kananook Site visit. Logging of photos on system. Additional admin when back in office. </t>
-  </si>
-  <si>
-    <t>2023-07-17</t>
-  </si>
-  <si>
-    <t>Enquired on Arch equipment power, followed up lightning, circuiting of power TMF ground.</t>
-  </si>
-  <si>
-    <t>2023-07-18</t>
-  </si>
-  <si>
-    <t>TMF Ground floor power circuiting and DB schedules. Received lightning designs.</t>
-  </si>
-  <si>
-    <t>2023-07-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMF Lv1 Power Circuit, Server Room Schematic. Mech coordination. </t>
-  </si>
-  <si>
-    <t>2023-07-20</t>
-  </si>
-  <si>
-    <t>Server room circuit, updated DB schedules, Added Section and 3D of TMF.</t>
-  </si>
-  <si>
-    <t>2023-07-21</t>
-  </si>
-  <si>
-    <t>Updated Emergency lighting (circuiting, locations, family editing), Revised Gate House Lighting.</t>
-  </si>
-  <si>
-    <t>2023-07-22</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Delegated work to Engineer. Emails. 3D details added.</t>
-  </si>
-  <si>
-    <t>2023-07-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Answered some CRS comments on OCS. Created and delegated tasks to draughters plus support. Prep for G2 issue. </t>
-  </si>
-  <si>
-    <t>2023-07-26</t>
-  </si>
-  <si>
-    <t>More CRS comments (OCS related - big task), more circuiting, model tidying for presentation.</t>
-  </si>
-  <si>
-    <t>2023-07-27</t>
-  </si>
-  <si>
-    <t>Circuited all outlets, Updated all DB Schedules, created additional 3D views with commentary.</t>
-  </si>
-  <si>
-    <t>2023-07-28</t>
-  </si>
-  <si>
-    <t>TMWF Package Release. Update Outlet schedule details. Responded to some of Rowan's comments.</t>
-  </si>
-  <si>
-    <t>2023-07-31</t>
-  </si>
-  <si>
-    <t>Added rising conduits into OCS TWF. Fixed outlet schedule. Rowan Comments response.</t>
+    <t>SOW for construction, emails and delegation of design check.</t>
+  </si>
+  <si>
+    <t>2023-08-23</t>
+  </si>
+  <si>
+    <t>Coordination meeting and solar design discussion.</t>
+  </si>
+  <si>
+    <t>CRS comment response, construction demarcation workshop.</t>
+  </si>
+  <si>
+    <t>2023-08-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigated the existing iso transformer and existing lights to be retained. </t>
+  </si>
+  <si>
+    <t>Informal architect coordination, Mech ducts coordination.</t>
+  </si>
+  <si>
+    <t>2023-08-25</t>
+  </si>
+  <si>
+    <t>Followed up on yard. Got access to Propeller.</t>
+  </si>
+  <si>
+    <t>Coordinated fire extinguishers and checked coverage (both buildings).  Coordinated cable tray solution in TMF with structures.</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>Switch IDR meeting, OCS PA length assistance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly Meeting. Reschedule cable tray workshop, </t>
+  </si>
+  <si>
+    <t>2023-08-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cable tray coordinate, Arc TV coordinate, Weekly meeting, GIS training, </t>
+  </si>
+  <si>
+    <t>2023-08-31</t>
+  </si>
+  <si>
+    <t>Metering drawing TMF update, TWF create. Precast panel penetartions review.</t>
   </si>
 </sst>
 </file>
@@ -563,13 +562,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -577,7 +576,7 @@
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="105.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="129.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -617,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -628,19 +627,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -648,19 +647,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -668,19 +667,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -688,19 +687,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -708,19 +707,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -728,19 +727,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -748,19 +747,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -768,19 +767,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -788,19 +787,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -808,19 +807,19 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -828,19 +827,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -848,19 +847,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -868,19 +867,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -888,19 +887,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -908,19 +907,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -928,19 +927,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -948,19 +947,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -968,19 +967,19 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -988,19 +987,139 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
         <v>54</v>
       </c>
-      <c r="E21" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
         <v>10</v>
       </c>
-      <c r="F21">
-        <v>8</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX_Time.xlsx
+++ b/XLSX_Time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb6fb34ffe4b9cd4/Documents/GitHub/KSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_11B975845BB05604BB5A2B11595ED87656CD397F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AE8F485-48B8-43CD-A87C-F90038EAEC41}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB1D69C5BC0D10C4BB93F11593990F45B03E5D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28CED0CE-DB1F-4BDC-94BB-9FB6E1831846}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25830" yWindow="240" windowWidth="25635" windowHeight="20505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t>Contact</t>
   </si>
@@ -46,160 +46,103 @@
     <t>WSP AUSTRALIA PTY LIMITED</t>
   </si>
   <si>
-    <t>DPK-32-BSG8303</t>
-  </si>
-  <si>
-    <t>2023-08-01</t>
+    <t>DPK-32-BSG8301</t>
+  </si>
+  <si>
+    <t>2023-09-01</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRS comments + sharepoint sharing, Sensor tap coordination, </t>
+  </si>
+  <si>
+    <t>2023-09-05</t>
   </si>
   <si>
     <t>Tuesday</t>
   </si>
   <si>
-    <t>Started CRS comments. Checked on RIW status. Informal meetings Hyd and Ethan.</t>
-  </si>
-  <si>
-    <t>2023-08-02</t>
+    <t>CRS comments response, Weekly meeting</t>
+  </si>
+  <si>
+    <t>2023-09-07</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access hatch markup and coordinate (TMWF), OCS containment corrections, cross bond update. </t>
+  </si>
+  <si>
+    <t>2023-09-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRS comments, Zach start meeting, E&amp;B track bonds. </t>
+  </si>
+  <si>
+    <t>2023-09-12</t>
+  </si>
+  <si>
+    <t>CRS comments. OCS workshop, email catchup, DB panel renaming on schedules and layouts.</t>
+  </si>
+  <si>
+    <t>2023-09-13</t>
   </si>
   <si>
     <t>Wednesday</t>
   </si>
   <si>
-    <t xml:space="preserve">Weekly resource meeting. CRS comments address. </t>
-  </si>
-  <si>
-    <t>2023-08-03</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>OHW coordination. CRS comments (VT and some MTM).</t>
-  </si>
-  <si>
-    <t>2023-08-04</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>MTM CRS comments</t>
-  </si>
-  <si>
-    <t>2023-08-08</t>
-  </si>
-  <si>
-    <t>Fixed up the OCS Reticulation plan. Re-coordinated OCS. Weekly Meeting.</t>
-  </si>
-  <si>
-    <t>2023-08-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRS meeting with MTM, and MTM CRS responding. </t>
-  </si>
-  <si>
-    <t>2023-08-10</t>
-  </si>
-  <si>
-    <t>Updated yard with MTM meeting comments, investigated JWebb comment, resolved some clashes. Moved building mounted lights to TMWF.</t>
-  </si>
-  <si>
-    <t>2023-08-11</t>
-  </si>
-  <si>
-    <t>Reduced lights on existing buildings, handed over JWebb comment, organised verification set.</t>
-  </si>
-  <si>
-    <t>2023-08-15</t>
-  </si>
-  <si>
-    <t>CRS comments (VT) and meeting, including document update. Lighting in BBQ area.</t>
-  </si>
-  <si>
-    <t>2023-08-16</t>
-  </si>
-  <si>
-    <t>Engineering Review comments, CRS support.</t>
-  </si>
-  <si>
-    <t>DPK-32-BSG8301</t>
-  </si>
-  <si>
-    <t>Coordination meeting with some action items.</t>
-  </si>
-  <si>
-    <t>2023-08-17</t>
-  </si>
-  <si>
-    <t>Followed up outstanding items with Package Manager. Investigated Shed lighting. Added Fire detection pathway.</t>
-  </si>
-  <si>
-    <t>Updated cable tray size in TMF, queried fixing details. Email tasks and outstanding items.</t>
-  </si>
-  <si>
-    <t>2023-08-18</t>
-  </si>
-  <si>
-    <t>Meetings and discussions around TMF cable tray clearance for forklift.</t>
-  </si>
-  <si>
-    <t>Coordination with OCS and Civil (still). Checking of yard quantity schedules.</t>
-  </si>
-  <si>
-    <t>2023-08-21</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>SOW for construction, emails and delegation of design check.</t>
-  </si>
-  <si>
-    <t>2023-08-23</t>
-  </si>
-  <si>
-    <t>Coordination meeting and solar design discussion.</t>
-  </si>
-  <si>
-    <t>CRS comment response, construction demarcation workshop.</t>
-  </si>
-  <si>
-    <t>2023-08-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigated the existing iso transformer and existing lights to be retained. </t>
-  </si>
-  <si>
-    <t>Informal architect coordination, Mech ducts coordination.</t>
-  </si>
-  <si>
-    <t>2023-08-25</t>
-  </si>
-  <si>
-    <t>Followed up on yard. Got access to Propeller.</t>
-  </si>
-  <si>
-    <t>Coordinated fire extinguishers and checked coverage (both buildings).  Coordinated cable tray solution in TMF with structures.</t>
-  </si>
-  <si>
-    <t>2023-08-29</t>
-  </si>
-  <si>
-    <t>Switch IDR meeting, OCS PA length assistance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekly Meeting. Reschedule cable tray workshop, </t>
-  </si>
-  <si>
-    <t>2023-08-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cable tray coordinate, Arc TV coordinate, Weekly meeting, GIS training, </t>
-  </si>
-  <si>
-    <t>2023-08-31</t>
-  </si>
-  <si>
-    <t>Metering drawing TMF update, TWF create. Precast panel penetartions review.</t>
+    <t xml:space="preserve">Updated TWF cable tray to new SBS/ARC. Askin Meeting. Coordination workshop. CRS comments. </t>
+  </si>
+  <si>
+    <t>2023-09-14</t>
+  </si>
+  <si>
+    <t>Training room markup, Fire CRS meetings and update, TMF cable tray coordinate (again).</t>
+  </si>
+  <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire services meeting and design of FHR. CRS workshop for E&amp;B. Zach handover.   </t>
+  </si>
+  <si>
+    <t>2023-09-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigated fire extinguisher design. MTM CRS workshop prep (including lighting assistance and evidence) </t>
+  </si>
+  <si>
+    <t>2023-09-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolved fire extinguisher design with V. Chow, Attended MTM CRS meeting, responded to OCS related CRS comments. </t>
+  </si>
+  <si>
+    <t>2023-09-22</t>
+  </si>
+  <si>
+    <t>Finished modelling extinguisher design, assisted OCS with VT in Gate house,  RCP coordination.</t>
+  </si>
+  <si>
+    <t>2023-09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRS comments (OCS), VT meeting for Phones, E&amp;B transformer yard assistance. </t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>Weekly meeting, CRS comments (OCS focused), coordination meeting.</t>
+  </si>
+  <si>
+    <t>2023-09-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRS Comments (OCS), MTM CRS meeting (2h40min!) </t>
   </si>
 </sst>
 </file>
@@ -562,13 +505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -576,7 +519,7 @@
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="129.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="110.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -673,13 +616,13 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -690,16 +633,16 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -710,10 +653,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -753,7 +696,7 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -773,7 +716,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -793,10 +736,10 @@
         <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -807,16 +750,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -833,10 +776,10 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
         <v>36</v>
@@ -847,19 +790,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -867,259 +810,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19">
-        <v>6</v>
-      </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23">
-        <v>7</v>
-      </c>
-      <c r="G23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
-      <c r="G25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26">
-        <v>8</v>
-      </c>
-      <c r="G26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27">
-        <v>8</v>
-      </c>
-      <c r="G27" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX_Time.xlsx
+++ b/XLSX_Time.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,20 +484,20 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-10-03</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Assisted with  Bardia TOC, OCS update, admin cable tray added.</t>
+          <t>Delegated items to Nan, Responded to LXA CRS. Responded to 2 off DTP comments. OCS coordination meeting.</t>
         </is>
       </c>
     </row>
@@ -515,20 +515,20 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Infra Workshop, TWF pit drainage,.</t>
+          <t xml:space="preserve">DTP CRS comments. VT comments raised. Coordination Workshop. </t>
         </is>
       </c>
     </row>
@@ -546,20 +546,20 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Re-coordinated grid AE tray. Coordination meeting.</t>
+          <t>Extracted VT drawings for review,  CRS MTM OCS workshop, Actioned workshop items.</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -590,7 +590,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Weekly Meeting, Canopy lighting, pit drainage, OHW sectionalization evidence.</t>
+          <t>OHW Meeting (outstanding items), Revizto clashes with RN, Ethan catchup, NV support for delegated tasks. Revit issues.</t>
         </is>
       </c>
     </row>
@@ -608,12 +608,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -621,7 +621,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Resolved OCS tray access issue. Updated TWF pits,  Weekly meeting.</t>
+          <t>MTM CRS Workshop (2 off), Revizto workshop with NV, actioned workshop items.</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-11-14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Updated Grid AE cable tray, attended OCS workshop, MTM Comment 130 resolution. </t>
+          <t xml:space="preserve">Coordinated and modelled Tx yard E&amp;B, Weekly Meeting, Updated Grid AE tray, coordination workshop. </t>
         </is>
       </c>
     </row>
@@ -670,12 +670,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-10-13</t>
+          <t>2023-11-15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Updated Staff building lights, Created the extinguisher sketch, Assisted with EM/EX TMF recircuit.</t>
+          <t>Electrical catchup meeting, AWP7 catchup meeting, Grid AE resolved!! Coordination workshop (mini). VT workshop.</t>
         </is>
       </c>
     </row>
@@ -701,20 +701,20 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-10-17</t>
+          <t>2023-11-16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weekly meeting, Fire correspondence, fire CRS comments. </t>
+          <t>Updated VT Pits and coordinated TMF VT pathways. Minor drawing updates.</t>
         </is>
       </c>
     </row>
@@ -732,12 +732,12 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2023-11-17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -745,7 +745,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Infromal meeting with  Rowan, Workshop with Zach, CRS response on TWF JBs, Grid AE touchup. </t>
+          <t xml:space="preserve">Penetration workshop, Serbie comments, </t>
         </is>
       </c>
     </row>
@@ -763,12 +763,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-10-19</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -776,7 +776,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Uploading CRS evidence to PW, updating Docs for G2, Meeting with Construction, </t>
+          <t xml:space="preserve">Added slab penotrations (TMF &amp; TWF), coordinated conduits and penos, weekly meeting, Vector lift workshop,  E&amp;B recoordinate rail bonds and conduit sizes. </t>
         </is>
       </c>
     </row>
@@ -794,12 +794,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-10-20</t>
+          <t>2023-11-22</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -807,7 +807,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">G2 Doc updates. . Safer meeting, CRS MTM comments upload. </t>
+          <t>Weekly meeting, VT internal pathway update and markup, CRS update and meeting. More E&amp;B coordination.</t>
         </is>
       </c>
     </row>
@@ -825,12 +825,12 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-11-23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -838,7 +838,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revizto workshop. DTP CRS comments. MTM transferred comments.  </t>
+          <t>Coordinated Mech pathways (particularly roof), Coordinated Server Room, attended OHW meeting.</t>
         </is>
       </c>
     </row>
@@ -856,20 +856,20 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2023-11-24</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">MTM CRS transferred comments. </t>
+          <t xml:space="preserve">Revizto issues. Completed VT updates and markup. Arc email quires on locks and conduit penos. </t>
         </is>
       </c>
     </row>
@@ -887,12 +887,12 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -900,7 +900,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>multiple meetings on MTM CRS comments.</t>
+          <t xml:space="preserve">Added and circuited TMF Gate Isolators. Mini Revizto workshop. Construction Meeting.  </t>
         </is>
       </c>
     </row>
@@ -918,12 +918,12 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -931,38 +931,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Started Tx Yard E/B drawing. Responded to CRS internal review. Coordinated with OHW.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>WSP AUSTRALIA PTY LIMITED</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>DPK-32-BSG8301</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2023-10-31</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Broken ankle, support only day. Weekly Meeting, Managers Meeting, Phone support. </t>
+          <t>Revizto issues. Construction meeting action items. Cable tray checking (big task)</t>
         </is>
       </c>
     </row>
